--- a/data/trans_bre/P25A_12_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25A_12_R2-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +584,42 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,26</t>
+          <t>8,22</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>3,39</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,81</t>
+          <t>3,51</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-22,07</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>268,7%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>58,01%</t>
+          <t>8,78</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>49,97%</t>
+          <t>239,59%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-31,17%</t>
+          <t>47,63%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>64,16%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>97,06%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,13; 11,99</t>
+          <t>2,63; 15,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 8,16</t>
+          <t>-2,63; 8,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 6,57</t>
+          <t>-0,84; 7,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-41,47; 2,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>53,5; 809,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-12,5; 214,75</t>
+          <t>1,06; 16,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-28,14; 192,2</t>
+          <t>23,1; 850,29</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-50,59; 3,5</t>
+          <t>-27,73; 203,74</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-15,61; 240,23</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>7,69; 301,06</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,53</t>
+          <t>6,27</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,66</t>
+          <t>3,29</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,05</t>
+          <t>4,14</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,2</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>206,92%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>108,4%</t>
+          <t>5,97</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>116,3%</t>
+          <t>197,98%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>19,93%</t>
+          <t>79,43%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>104,43%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>136,32%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,57; 8,76</t>
+          <t>2,67; 11,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,45; 5,88</t>
+          <t>-0,38; 6,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,73; 6,85</t>
+          <t>1,39; 8,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,15; 25,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>53,97; 444,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>31,3; 235,66</t>
+          <t>1,59; 9,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>32,9; 269,72</t>
+          <t>44,93; 618,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-13,19; 66,81</t>
+          <t>-12,17; 231,83</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>20,24; 267,17</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>23,26; 371,0</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,34</t>
+          <t>4,48</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,15</t>
+          <t>4,17</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>15,38</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-16,49%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>114,08%</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>218,23%</t>
+          <t>30,2%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>48,06%</t>
+          <t>208,1%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>209,61%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>26,12%</t>
         </is>
       </c>
     </row>
@@ -868,49 +1000,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 2,35</t>
+          <t>-2,06; 4,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 6,03</t>
+          <t>1,73; 7,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,22; 6,66</t>
+          <t>1,81; 6,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-21,15; 42,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-70,75; 81,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,32; 370,44</t>
+          <t>-2,48; 5,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>69,3; 612,17</t>
+          <t>-43,98; 221,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-39,13; 478,01</t>
+          <t>46,2; 657,98</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>48,01; 533,32</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-31,08; 145,18</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,98</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,68</t>
+          <t>3,29</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,85</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>117,67%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>94,59%</t>
+          <t>6,63</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>111,78%</t>
+          <t>46,62%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>82,97%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>164,26%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,94; 6,19</t>
+          <t>-1,64; 4,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,83; 5,44</t>
+          <t>-0,92; 7,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,36; 5,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-12,85; 13,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>33,77; 233,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>37,83; 183,45</t>
+          <t>2,83; 10,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>52,5; 204,49</t>
+          <t>-36,77; 175,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-20,11; 28,87</t>
+          <t>-25,85; 263,69</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>41,39; 416,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3,6</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3,66</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4,03</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5,81</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>103,24%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>90,0%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>110,31%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>109,97%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1,56; 5,49</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1,89; 5,4</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2,23; 6,09</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>3,58; 8,12</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>34,84; 195,82</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>33,14; 168,67</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>46,04; 208,34</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>53,29; 189,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P25A_12_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25A_12_R2-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>8,22</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>3,39</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,51</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>8,78</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>239,59%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>47,63%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>64,16%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>97,06%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>8.367628659358751</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>3.430005158327966</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>3.229168622868329</v>
+      </c>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="n">
+        <v>8.418686513376109</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>2.410358083663271</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.481742535251628</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.5662285837873182</v>
+      </c>
+      <c r="L4" s="6" t="inlineStr"/>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="n">
+        <v>0.9318653419173092</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>2,63; 15,65</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,63; 8,94</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,84; 7,58</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>1,06; 16,35</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>23,1; 850,29</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-27,73; 203,74</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-15,61; 240,23</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>7,69; 301,06</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>2.654410757336036</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-2.74210340980315</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-1.574043584531599</v>
+      </c>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="n">
+        <v>1.039793790153986</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.2159494766141235</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.2842097863167823</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.2259431888673848</v>
+      </c>
+      <c r="L5" s="6" t="inlineStr"/>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="n">
+        <v>0.07384883628955524</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15.7235788727186</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>8.916984899733048</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>7.255054649158238</v>
+      </c>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="n">
+        <v>15.98430384237408</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>8.622730734354818</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>2.084377673400122</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>2.231283765446341</v>
+      </c>
+      <c r="L6" s="6" t="inlineStr"/>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="n">
+        <v>2.941871773611327</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>6,27</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,29</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>4,14</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>5,97</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>197,98%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>79,43%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>104,43%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>136,32%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>2,67; 11,44</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-0,38; 6,31</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1,39; 8,14</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>1,59; 9,92</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>44,93; 618,02</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-12,17; 231,83</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>20,24; 267,17</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>23,26; 371,0</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>6.206526241003534</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>3.710453974893849</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>4.009767992265145</v>
+      </c>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="n">
+        <v>6.213104823279441</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>2.127068109800337</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.914552375689914</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>1.027341964599729</v>
+      </c>
+      <c r="L7" s="6" t="inlineStr"/>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="n">
+        <v>1.441433731969701</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,08</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>4,48</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>4,17</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>1,58</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>30,2%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>208,1%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>209,61%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>26,12%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>2.867933750208286</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.04904617481913346</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>1.22643529826121</v>
+      </c>
+      <c r="F8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="n">
+        <v>1.934917299882399</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.5398671720209367</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.05610581096358768</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.1731744665148212</v>
+      </c>
+      <c r="L8" s="6" t="inlineStr"/>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="n">
+        <v>0.2912346883330663</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-2,06; 4,39</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>1,73; 7,44</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>1,81; 6,5</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-2,48; 5,54</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-43,98; 221,04</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>46,2; 657,98</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>48,01; 533,32</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-31,08; 145,18</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>10.75626529141856</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>6.863479462898621</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>7.615916302081676</v>
+      </c>
+      <c r="F9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="n">
+        <v>10.07880986463826</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>6.265934137506688</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>2.605457236457888</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>2.571019407522748</v>
+      </c>
+      <c r="L9" s="6" t="inlineStr"/>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="n">
+        <v>3.845955110879109</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +883,234 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,71</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>3,29</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>6,63</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>46,62%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>82,97%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>164,26%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>0.4191164554531008</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>4.135066457750993</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>4.086759376669351</v>
+      </c>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="n">
+        <v>1.720689403202107</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.1000087685280019</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>1.693694743997955</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>1.983083162874902</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="n">
+        <v>0.285020632116089</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-1,64; 4,07</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-0,92; 7,02</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>2,83; 10,9</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-36,77; 175,69</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-25,85; 263,69</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>41,39; 416,73</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-3.757466138740992</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>1.118970574239495</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>1.652095660188418</v>
+      </c>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="n">
+        <v>-2.409973099402481</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.5890815184885499</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>0.1352106384980553</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>0.3509912870398633</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr"/>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="n">
+        <v>-0.3039015627126013</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>3.723161440192095</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>7.042959839652039</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>6.462757514553465</v>
+      </c>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="n">
+        <v>5.81848118571044</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>1.733747427293484</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>5.499517459679929</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>5.222054363482009</v>
+      </c>
+      <c r="L12" s="6" t="inlineStr"/>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="n">
+        <v>1.474951486885575</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>3,6</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>3,66</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>4,03</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>5,81</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>103,24%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>90,0%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>110,31%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>109,97%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>1,56; 5,49</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>1,89; 5,4</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>2,23; 6,09</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>3,58; 8,12</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>34,84; 195,82</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>33,14; 168,67</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>46,04; 208,34</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>53,29; 189,56</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>4.586837069594979</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>3.852430476525644</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>3.894784228143469</v>
+      </c>
+      <c r="F13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="n">
+        <v>5.481067113538458</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>1.320417675240052</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.9268831274667774</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>1.0512546064254</v>
+      </c>
+      <c r="L13" s="6" t="inlineStr"/>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="n">
+        <v>0.9434542619823898</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>2.121753028054801</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>1.586603191479308</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>2.093197021088478</v>
+      </c>
+      <c r="F14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="n">
+        <v>2.701422795751739</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.3657786770104309</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.2486252498468821</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.4152441766562541</v>
+      </c>
+      <c r="L14" s="6" t="inlineStr"/>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="n">
+        <v>0.3679287695220617</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>7.324685351142439</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>5.839296885688361</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>5.826816598832613</v>
+      </c>
+      <c r="F15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="n">
+        <v>8.325914492634915</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>2.969362151384087</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.843945451820538</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>2.001938249983318</v>
+      </c>
+      <c r="L15" s="6" t="inlineStr"/>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="n">
+        <v>1.819137220118122</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
